--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Patient.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Patient.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Patient.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4048" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4048" uniqueCount="596">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -263,6 +263,10 @@
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -460,240 +464,247 @@
     <t>The citizenship of the patient. should be a country code from ISO 3166 code system</t>
   </si>
   <si>
+    <t>Patient.extension:citizenship.id</t>
+  </si>
+  <si>
+    <t>Patient.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Patient.extension:citizenship.id</t>
-  </si>
-  <si>
-    <t>Patient.extension.id</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.extension:code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>no-basis-Patient introduces iso 3166 codes
+Nation code representing the citizenship of patient.</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.extension:code.id</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.extension:code.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.extension:code.url</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.extension:code.value[x]</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>urn:iso:std:iso:3166</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.extension:period</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>Time period of citizenship</t>
+  </si>
+  <si>
+    <t>Period when citizenship was effective.</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.extension:period.id</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.extension:period.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.extension:period.url</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.extension:period.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.url</t>
+  </si>
+  <si>
+    <t>Patient.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/patient-citizenship</t>
+  </si>
+  <si>
+    <t>Patient.extension:citizenship.value[x]</t>
+  </si>
+  <si>
+    <t>Patient.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegerinteger64markdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodeableReferenceCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioRatioRangeReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextAvailabilityExtendedContactDetailDosageMeta</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient. Should be at Fødselsnummer, Felles hjelpenummer, D-nummer or locally assigned H-nummer</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR</t>
+  </si>
+  <si>
+    <t>FNR</t>
+  </si>
+  <si>
+    <t>Norwegian FNR</t>
+  </si>
+  <si>
+    <t>Fødselsnummer for the patient. Fødselsnummer as one of the possible patient identifier, should at least be sent unless there is a reason not to. Reasons for not sending the Fødselsnummer include but are not limited to, research and apps without a contract for processing data.
+Multiple FNR can exist for a person. If several FNR is provided the time period that each identifier is valid should be provided. No information about period is required when only one FNR is provided.</t>
+  </si>
+  <si>
+    <t>Patient.identifier:FNR.id</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
+    <t>Patient.identifier:FNR.extension</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.extension:code</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>no-basis-Patient introduces iso 3166 codes
-Nation code representing the citizenship of patient.</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.extension:code.id</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.extension:code.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.extension:code.url</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.extension:code.value[x]</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>urn:iso:std:iso:3166</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.extension:period</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>Time period of citizenship</t>
-  </si>
-  <si>
-    <t>Period when citizenship was effective.</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.extension:period.id</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.extension:period.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.extension:period.url</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.extension:period.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.url</t>
-  </si>
-  <si>
-    <t>Patient.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/patient-citizenship</t>
-  </si>
-  <si>
-    <t>Patient.extension:citizenship.value[x]</t>
-  </si>
-  <si>
-    <t>Patient.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifier for this patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient. Should be at Fødselsnummer, Felles hjelpenummer, D-nummer or locally assigned H-nummer</t>
-  </si>
-  <si>
-    <t>Patients are almost always assigned specific numerical identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR</t>
-  </si>
-  <si>
-    <t>FNR</t>
-  </si>
-  <si>
-    <t>Norwegian FNR</t>
-  </si>
-  <si>
-    <t>Fødselsnummer for the patient. Fødselsnummer as one of the possible patient identifier, should at least be sent unless there is a reason not to. Reasons for not sending the Fødselsnummer include but are not limited to, research and apps without a contract for processing data.
-Multiple FNR can exist for a person. If several FNR is provided the time period that each identifier is valid should be provided. No information about period is required when only one FNR is provided.</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:FNR.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier.extension</t>
   </si>
   <si>
     <t>Patient.identifier:FNR.use</t>
@@ -1426,7 +1437,7 @@
     <t>http://hl7.no/fhir/StructureDefinition/no-basis-Address</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
@@ -1973,10 +1984,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2419,13 +2430,13 @@
         <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2439,10 +2450,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2453,7 +2464,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -2462,19 +2473,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2524,13 +2535,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2556,10 +2567,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2570,7 +2581,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2579,16 +2590,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2639,19 +2650,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2671,10 +2682,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2685,28 +2696,28 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2756,19 +2767,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2788,10 +2799,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2802,7 +2813,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2814,16 +2825,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2849,13 +2860,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -2873,19 +2884,19 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2905,21 +2916,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2931,16 +2942,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2990,22 +3001,22 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3022,14 +3033,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3048,16 +3059,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3107,7 +3118,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -3122,7 +3133,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3139,10 +3150,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3165,13 +3176,13 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3210,17 +3221,17 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3232,7 +3243,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3252,16 +3263,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3280,13 +3291,13 @@
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3337,7 +3348,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3346,10 +3357,10 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3383,7 +3394,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -3395,13 +3406,13 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3452,16 +3463,16 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3510,7 +3521,7 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>154</v>
@@ -3557,7 +3568,7 @@
         <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>157</v>
@@ -3566,7 +3577,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>158</v>
@@ -3581,7 +3592,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>150</v>
@@ -3617,7 +3628,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3629,10 +3640,10 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>161</v>
@@ -3698,7 +3709,7 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3732,7 +3743,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3744,13 +3755,13 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3801,16 +3812,16 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
@@ -3859,13 +3870,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3904,7 +3915,7 @@
         <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>157</v>
@@ -3913,7 +3924,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>158</v>
@@ -3928,7 +3939,7 @@
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -3959,10 +3970,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3974,7 +3985,7 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>168</v>
@@ -4036,10 +4047,10 @@
         <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
@@ -4048,7 +4059,7 @@
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
@@ -4076,10 +4087,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -4152,16 +4163,16 @@
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
@@ -4178,13 +4189,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>152</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>78</v>
@@ -4194,7 +4205,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -4206,13 +4217,13 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4275,7 +4286,7 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4295,7 +4306,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>163</v>
@@ -4309,7 +4320,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -4321,13 +4332,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4378,16 +4389,16 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -4410,7 +4421,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>165</v>
@@ -4436,13 +4447,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4481,7 +4492,7 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>157</v>
@@ -4490,7 +4501,7 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>158</v>
@@ -4505,7 +4516,7 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -4525,7 +4536,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>167</v>
@@ -4536,10 +4547,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4551,7 +4562,7 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>168</v>
@@ -4568,7 +4579,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>78</v>
@@ -4613,10 +4624,10 @@
         <v>171</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -4625,7 +4636,7 @@
         <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
@@ -4642,7 +4653,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>173</v>
@@ -4653,10 +4664,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4668,7 +4679,7 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>175</v>
@@ -4731,16 +4742,16 @@
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
@@ -4757,10 +4768,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4768,10 +4779,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4783,7 +4794,7 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>168</v>
@@ -4800,7 +4811,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>78</v>
@@ -4845,10 +4856,10 @@
         <v>171</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4857,7 +4868,7 @@
         <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -4874,10 +4885,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4900,7 +4911,7 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>175</v>
@@ -4963,16 +4974,16 @@
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -4989,10 +5000,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5009,25 +5020,25 @@
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>156</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -5076,7 +5087,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -5088,10 +5099,10 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
@@ -5108,10 +5119,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5131,20 +5142,20 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5181,17 +5192,17 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5203,19 +5214,19 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -5223,13 +5234,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
@@ -5248,20 +5259,20 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5310,7 +5321,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -5322,19 +5333,19 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5342,10 +5353,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5356,7 +5367,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5368,13 +5379,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5425,13 +5436,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -5457,10 +5468,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5483,13 +5494,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>154</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>156</v>
@@ -5530,7 +5541,7 @@
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>157</v>
@@ -5539,7 +5550,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>158</v>
@@ -5554,7 +5565,7 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>150</v>
@@ -5574,10 +5585,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5588,31 +5599,31 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5637,13 +5648,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5661,22 +5672,22 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>78</v>
@@ -5685,7 +5696,7 @@
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5693,10 +5704,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5707,7 +5718,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5716,22 +5727,22 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5756,13 +5767,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5780,22 +5791,22 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -5804,7 +5815,7 @@
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5812,10 +5823,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5823,10 +5834,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5835,35 +5846,35 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>78</v>
@@ -5899,22 +5910,22 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
@@ -5923,7 +5934,7 @@
         <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5931,21 +5942,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5954,19 +5965,19 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5980,7 +5991,7 @@
         <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>78</v>
@@ -6016,22 +6027,22 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>78</v>
@@ -6040,7 +6051,7 @@
         <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6048,10 +6059,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6062,7 +6073,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -6071,16 +6082,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6131,22 +6142,22 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -6155,7 +6166,7 @@
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6163,10 +6174,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6177,7 +6188,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -6186,19 +6197,19 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6248,22 +6259,22 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -6272,7 +6283,7 @@
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6280,13 +6291,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>78</v>
@@ -6305,20 +6316,20 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6367,7 +6378,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6379,19 +6390,19 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6399,10 +6410,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6413,7 +6424,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6425,13 +6436,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6482,13 +6493,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -6514,10 +6525,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6540,13 +6551,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>154</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>156</v>
@@ -6587,7 +6598,7 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>157</v>
@@ -6596,7 +6607,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>158</v>
@@ -6611,7 +6622,7 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>150</v>
@@ -6631,10 +6642,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6645,31 +6656,31 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6694,13 +6705,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6718,22 +6729,22 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
@@ -6742,7 +6753,7 @@
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6750,10 +6761,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6764,7 +6775,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6773,22 +6784,22 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6813,13 +6824,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6837,22 +6848,22 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
@@ -6861,7 +6872,7 @@
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6869,10 +6880,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6880,10 +6891,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6892,35 +6903,35 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>78</v>
@@ -6956,22 +6967,22 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
@@ -6980,7 +6991,7 @@
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6988,10 +6999,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6999,10 +7010,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -7011,19 +7022,19 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7037,7 +7048,7 @@
         <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -7073,22 +7084,22 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -7097,7 +7108,7 @@
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7105,10 +7116,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7119,7 +7130,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -7128,16 +7139,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7188,22 +7199,22 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -7212,7 +7223,7 @@
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7220,10 +7231,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7234,7 +7245,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7243,19 +7254,19 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7305,22 +7316,22 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -7329,7 +7340,7 @@
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7337,13 +7348,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>78</v>
@@ -7362,20 +7373,20 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7424,7 +7435,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7436,19 +7447,19 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7456,10 +7467,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7470,7 +7481,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7482,13 +7493,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7539,13 +7550,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -7571,10 +7582,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7597,13 +7608,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>154</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>156</v>
@@ -7644,7 +7655,7 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>157</v>
@@ -7653,7 +7664,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>158</v>
@@ -7668,7 +7679,7 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>150</v>
@@ -7688,10 +7699,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7702,31 +7713,31 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7751,13 +7762,13 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7775,22 +7786,22 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
@@ -7799,7 +7810,7 @@
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7807,10 +7818,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7821,7 +7832,7 @@
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7830,22 +7841,22 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7870,13 +7881,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7894,22 +7905,22 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
@@ -7918,7 +7929,7 @@
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -7926,10 +7937,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7937,10 +7948,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7949,35 +7960,35 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>78</v>
@@ -8013,22 +8024,22 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
@@ -8037,7 +8048,7 @@
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -8045,10 +8056,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8056,10 +8067,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -8068,19 +8079,19 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8094,7 +8105,7 @@
         <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>78</v>
@@ -8130,22 +8141,22 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
@@ -8154,7 +8165,7 @@
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -8162,10 +8173,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8176,7 +8187,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -8185,16 +8196,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8245,22 +8256,22 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
@@ -8269,7 +8280,7 @@
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8277,10 +8288,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8291,7 +8302,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8300,19 +8311,19 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8362,22 +8373,22 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
@@ -8386,7 +8397,7 @@
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8394,13 +8405,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>78</v>
@@ -8419,20 +8430,20 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8481,7 +8492,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8493,19 +8504,19 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
@@ -8513,10 +8524,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8527,7 +8538,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8539,13 +8550,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8596,13 +8607,13 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
@@ -8628,10 +8639,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8654,13 +8665,13 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>154</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>156</v>
@@ -8701,7 +8712,7 @@
         <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>157</v>
@@ -8710,7 +8721,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>158</v>
@@ -8725,7 +8736,7 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>150</v>
@@ -8745,10 +8756,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8759,31 +8770,31 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8808,13 +8819,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8832,22 +8843,22 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8856,7 +8867,7 @@
         <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8864,10 +8875,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8878,7 +8889,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8887,22 +8898,22 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8927,13 +8938,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8951,22 +8962,22 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -8975,7 +8986,7 @@
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
@@ -8983,10 +8994,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8997,7 +9008,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -9009,13 +9020,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9066,13 +9077,13 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
@@ -9098,10 +9109,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9124,13 +9135,13 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>154</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>156</v>
@@ -9171,7 +9182,7 @@
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>157</v>
@@ -9180,7 +9191,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>158</v>
@@ -9195,7 +9206,7 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>150</v>
@@ -9215,10 +9226,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9238,22 +9249,22 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9302,7 +9313,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9314,10 +9325,10 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
@@ -9326,7 +9337,7 @@
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9334,10 +9345,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9348,7 +9359,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9360,13 +9371,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9417,13 +9428,13 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -9449,10 +9460,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9475,13 +9486,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>154</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>156</v>
@@ -9522,7 +9533,7 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>157</v>
@@ -9531,7 +9542,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>158</v>
@@ -9546,7 +9557,7 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>150</v>
@@ -9566,10 +9577,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9577,10 +9588,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9589,29 +9600,29 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>78</v>
@@ -9653,22 +9664,22 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
@@ -9677,7 +9688,7 @@
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9685,10 +9696,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9699,7 +9710,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9708,19 +9719,19 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9770,22 +9781,22 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9794,7 +9805,7 @@
         <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -9802,10 +9813,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9813,10 +9824,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9825,27 +9836,27 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>78</v>
@@ -9887,22 +9898,22 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
@@ -9911,7 +9922,7 @@
         <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>78</v>
@@ -9919,10 +9930,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9933,7 +9944,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9942,20 +9953,20 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -10004,22 +10015,22 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
@@ -10028,7 +10039,7 @@
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -10036,10 +10047,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10050,7 +10061,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -10059,22 +10070,22 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -10123,22 +10134,22 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -10147,7 +10158,7 @@
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -10155,10 +10166,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10169,7 +10180,7 @@
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -10178,22 +10189,22 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10242,22 +10253,22 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -10266,7 +10277,7 @@
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10274,10 +10285,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10285,10 +10296,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10297,35 +10308,35 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>78</v>
@@ -10361,22 +10372,22 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
@@ -10385,7 +10396,7 @@
         <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
@@ -10393,10 +10404,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10404,10 +10415,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -10416,19 +10427,19 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10442,7 +10453,7 @@
         <v>78</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>78</v>
@@ -10478,22 +10489,22 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>78</v>
@@ -10502,7 +10513,7 @@
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
@@ -10510,10 +10521,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10524,7 +10535,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10533,16 +10544,16 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10593,22 +10604,22 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
@@ -10617,7 +10628,7 @@
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
@@ -10625,10 +10636,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10636,10 +10647,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10648,19 +10659,19 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10710,22 +10721,22 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
@@ -10734,7 +10745,7 @@
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>78</v>
@@ -10742,10 +10753,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10756,103 +10767,103 @@
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N74" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q74" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF74" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="O74" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q74" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10863,10 +10874,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10889,19 +10900,19 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -10950,7 +10961,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10959,13 +10970,13 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
@@ -10974,7 +10985,7 @@
         <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>78</v>
@@ -10982,10 +10993,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11005,22 +11016,22 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -11069,7 +11080,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11081,19 +11092,19 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
@@ -11101,10 +11112,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11115,7 +11126,7 @@
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -11124,22 +11135,22 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -11164,13 +11175,13 @@
         <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -11188,31 +11199,31 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
@@ -11220,10 +11231,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11234,7 +11245,7 @@
         <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -11243,22 +11254,22 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -11307,42 +11318,42 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11353,31 +11364,31 @@
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11426,22 +11437,22 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>150</v>
@@ -11450,7 +11461,7 @@
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>78</v>
@@ -11458,10 +11469,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11484,19 +11495,19 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11545,7 +11556,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11554,13 +11565,13 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>78</v>
@@ -11569,7 +11580,7 @@
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>78</v>
@@ -11577,10 +11588,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11591,7 +11602,7 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -11606,14 +11617,14 @@
         <v>174</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11638,13 +11649,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -11662,31 +11673,31 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>78</v>
@@ -11694,10 +11705,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11708,7 +11719,7 @@
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11720,19 +11731,19 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11781,22 +11792,22 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>150</v>
@@ -11805,7 +11816,7 @@
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
@@ -11813,10 +11824,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11839,19 +11850,19 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11900,7 +11911,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -11912,10 +11923,10 @@
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>150</v>
@@ -11924,7 +11935,7 @@
         <v>78</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
@@ -11932,10 +11943,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11958,19 +11969,19 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -12019,7 +12030,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12031,10 +12042,10 @@
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>150</v>
@@ -12051,10 +12062,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12065,7 +12076,7 @@
         <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -12077,13 +12088,13 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12134,13 +12145,13 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
@@ -12166,10 +12177,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12192,13 +12203,13 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>154</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>156</v>
@@ -12263,7 +12274,7 @@
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>150</v>
@@ -12283,14 +12294,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12303,25 +12314,25 @@
         <v>78</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>156</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>78</v>
@@ -12370,7 +12381,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12382,10 +12393,10 @@
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>78</v>
@@ -12402,10 +12413,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12431,14 +12442,14 @@
         <v>174</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12463,13 +12474,13 @@
         <v>78</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>78</v>
@@ -12487,7 +12498,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12499,7 +12510,7 @@
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>160</v>
@@ -12511,7 +12522,7 @@
         <v>78</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>78</v>
@@ -12519,10 +12530,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12533,7 +12544,7 @@
         <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -12545,19 +12556,19 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -12606,22 +12617,22 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>78</v>
@@ -12630,7 +12641,7 @@
         <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>78</v>
@@ -12638,10 +12649,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12664,19 +12675,19 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -12725,7 +12736,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -12737,10 +12748,10 @@
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>150</v>
@@ -12749,7 +12760,7 @@
         <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>78</v>
@@ -12757,10 +12768,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12771,7 +12782,7 @@
         <v>76</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
@@ -12783,19 +12794,19 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12844,22 +12855,22 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>78</v>
@@ -12868,7 +12879,7 @@
         <v>78</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>78</v>
@@ -12876,10 +12887,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12890,7 +12901,7 @@
         <v>76</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
@@ -12902,17 +12913,17 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12937,13 +12948,13 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -12961,22 +12972,22 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>150</v>
@@ -12985,7 +12996,7 @@
         <v>78</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>78</v>
@@ -12993,10 +13004,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13007,7 +13018,7 @@
         <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>78</v>
@@ -13019,17 +13030,17 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
@@ -13078,22 +13089,22 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>150</v>
@@ -13102,7 +13113,7 @@
         <v>78</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>78</v>
@@ -13110,10 +13121,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13124,7 +13135,7 @@
         <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
@@ -13136,13 +13147,13 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13193,22 +13204,22 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>150</v>
@@ -13225,10 +13236,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13251,19 +13262,19 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -13312,7 +13323,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13324,13 +13335,13 @@
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>78</v>
@@ -13344,10 +13355,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13358,7 +13369,7 @@
         <v>76</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -13370,13 +13381,13 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13427,13 +13438,13 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
@@ -13459,10 +13470,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13485,13 +13496,13 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>154</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>156</v>
@@ -13556,7 +13567,7 @@
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>150</v>
@@ -13576,14 +13587,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13596,25 +13607,25 @@
         <v>78</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>156</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13663,7 +13674,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -13675,10 +13686,10 @@
         <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>78</v>
@@ -13695,10 +13706,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13706,10 +13717,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
@@ -13724,16 +13735,16 @@
         <v>174</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13758,13 +13769,13 @@
         <v>78</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>78</v>
@@ -13782,31 +13793,31 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>78</v>
@@ -13814,10 +13825,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13828,7 +13839,7 @@
         <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13840,19 +13851,19 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -13901,31 +13912,31 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>78</v>
@@ -13933,14 +13944,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13959,16 +13970,16 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14018,7 +14029,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -14030,10 +14041,10 @@
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>150</v>
@@ -14042,7 +14053,7 @@
         <v>78</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>78</v>
@@ -14050,10 +14061,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14064,7 +14075,7 @@
         <v>76</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
@@ -14073,22 +14084,22 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -14137,25 +14148,25 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>78</v>
@@ -14169,10 +14180,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14189,25 +14200,25 @@
         <v>78</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
@@ -14256,7 +14267,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -14268,10 +14279,10 @@
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>150</v>
@@ -14288,10 +14299,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14302,7 +14313,7 @@
         <v>76</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>78</v>
@@ -14314,13 +14325,13 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14371,13 +14382,13 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>78</v>
@@ -14403,10 +14414,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14429,13 +14440,13 @@
         <v>78</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L105" t="s" s="2">
         <v>154</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>156</v>
@@ -14500,7 +14511,7 @@
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>150</v>
@@ -14520,14 +14531,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14540,25 +14551,25 @@
         <v>78</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>156</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
@@ -14607,7 +14618,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -14619,10 +14630,10 @@
         <v>78</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>78</v>
@@ -14639,10 +14650,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14650,10 +14661,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>78</v>
@@ -14662,19 +14673,19 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14724,22 +14735,22 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>150</v>
@@ -14748,7 +14759,7 @@
         <v>78</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>78</v>
@@ -14756,10 +14767,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14767,10 +14778,10 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>78</v>
@@ -14779,16 +14790,16 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14815,46 +14826,46 @@
         <v>78</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="Z108" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF108" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="AA108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="AG108" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>150</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Patient.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4048" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="602">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -624,7 +624,7 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegerinteger64markdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodeableReferenceCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioRatioRangeReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextAvailabilityExtendedContactDetailDosageMeta</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -997,7 +997,7 @@
     <t>A locally assigned H-nummer</t>
   </si>
   <si>
-    <t>A locally assigned H-nummer. If this identifier is used, information about the assigner is mandatory.</t>
+    <t>A locally assigned H-nummer. If this identifier is used, information about the assigner is mandatory.  Merk at lokale hjelpenummer (H-nummer) for pasient ikke garanterer at kombinasjonen system og value er gir unik identifikasjon, siden disse tildeles på lokalt i det enkelte kliniske fagsystem. Felles nasjonale hjelpenummer utstedt av tjenesten for felles hjelpenummer er imidlertid unike i Norge (og globalt unike i kombinasjon med system).</t>
   </si>
   <si>
     <t>Patient.identifier:HNR.id</t>
@@ -1292,22 +1292,25 @@
 </t>
   </si>
   <si>
-    <t>Norwegian human name</t>
-  </si>
-  <si>
-    <t>Defines the format of norwegian human name according to norwegian legislation (lov om personnavn).</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>A name associated with the patient</t>
+  </si>
+  <si>
+    <t>A name associated with the individual.</t>
+  </si>
+  <si>
+    <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns.</t>
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>XPN</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>.patient.name</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
   </si>
   <si>
     <t>Patient.telecom</t>
@@ -1437,16 +1440,19 @@
     <t>http://hl7.no/fhir/StructureDefinition/no-basis-Address</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Patient may have multiple addresses with different uses or applicable periods.</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>XAD</t>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>.addr</t>
+  </si>
+  <si>
+    <t>PID-11</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1602,9 +1608,18 @@
     <t>Patient.contact.name</t>
   </si>
   <si>
+    <t>A name associated with the contact person</t>
+  </si>
+  <si>
+    <t>A name associated with the contact person.</t>
+  </si>
+  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
   </si>
   <si>
+    <t>NK1-2</t>
+  </si>
+  <si>
     <t>Patient.contact.telecom</t>
   </si>
   <si>
@@ -1623,13 +1638,16 @@
     <t>Patient.contact.address</t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
-  </si>
-  <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
+    <t>Address for the contact person</t>
+  </si>
+  <si>
+    <t>Address for the contact person.</t>
   </si>
   <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
+  </si>
+  <si>
+    <t>NK1-4</t>
   </si>
   <si>
     <t>Patient.contact.gender</t>
@@ -10897,7 +10915,7 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>411</v>
@@ -10970,7 +10988,7 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>98</v>
@@ -10979,13 +10997,13 @@
         <v>416</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>78</v>
@@ -10993,10 +11011,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11019,19 +11037,19 @@
         <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -11080,7 +11098,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11095,16 +11113,16 @@
         <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
@@ -11112,10 +11130,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11141,16 +11159,16 @@
         <v>106</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -11178,10 +11196,10 @@
         <v>227</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -11199,7 +11217,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11214,16 +11232,16 @@
         <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
@@ -11231,10 +11249,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11257,19 +11275,19 @@
         <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -11318,7 +11336,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11333,27 +11351,27 @@
         <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11376,19 +11394,19 @@
         <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11437,7 +11455,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11452,7 +11470,7 @@
         <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>150</v>
@@ -11461,7 +11479,7 @@
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>78</v>
@@ -11469,10 +11487,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11492,22 +11510,22 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11556,7 +11574,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11565,22 +11583,22 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>78</v>
@@ -11588,10 +11606,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11617,14 +11635,14 @@
         <v>174</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11652,10 +11670,10 @@
         <v>238</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -11673,7 +11691,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -11688,16 +11706,16 @@
         <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>78</v>
@@ -11705,10 +11723,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11731,19 +11749,19 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11792,7 +11810,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11807,7 +11825,7 @@
         <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>150</v>
@@ -11816,7 +11834,7 @@
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
@@ -11824,10 +11842,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11850,19 +11868,19 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11911,7 +11929,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -11926,7 +11944,7 @@
         <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>150</v>
@@ -11935,7 +11953,7 @@
         <v>78</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
@@ -11943,10 +11961,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11969,19 +11987,19 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -12030,7 +12048,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12042,10 +12060,10 @@
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>150</v>
@@ -12062,10 +12080,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12177,10 +12195,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12294,14 +12312,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12323,10 +12341,10 @@
         <v>131</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>156</v>
@@ -12381,7 +12399,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12413,10 +12431,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12442,14 +12460,14 @@
         <v>174</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12477,10 +12495,10 @@
         <v>238</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>78</v>
@@ -12498,7 +12516,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12522,7 +12540,7 @@
         <v>78</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>78</v>
@@ -12530,10 +12548,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12559,16 +12577,14 @@
         <v>411</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>412</v>
+        <v>513</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -12617,7 +12633,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -12626,7 +12642,7 @@
         <v>86</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>98</v>
@@ -12635,13 +12651,13 @@
         <v>416</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>417</v>
+        <v>516</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>78</v>
@@ -12649,10 +12665,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12675,19 +12691,19 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -12736,7 +12752,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -12751,7 +12767,7 @@
         <v>98</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>150</v>
@@ -12760,7 +12776,7 @@
         <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>78</v>
@@ -12768,10 +12784,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12794,19 +12810,17 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12855,7 +12869,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -12864,22 +12878,22 @@
         <v>86</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>78</v>
@@ -12887,10 +12901,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12916,14 +12930,14 @@
         <v>106</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -12951,10 +12965,10 @@
         <v>227</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -12972,7 +12986,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -12987,7 +13001,7 @@
         <v>98</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>150</v>
@@ -12996,7 +13010,7 @@
         <v>78</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>78</v>
@@ -13004,10 +13018,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13033,14 +13047,14 @@
         <v>273</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
@@ -13089,7 +13103,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13098,13 +13112,13 @@
         <v>86</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>150</v>
@@ -13113,7 +13127,7 @@
         <v>78</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>78</v>
@@ -13121,10 +13135,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13150,10 +13164,10 @@
         <v>189</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13204,7 +13218,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -13219,7 +13233,7 @@
         <v>98</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>150</v>
@@ -13236,10 +13250,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13262,19 +13276,19 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -13323,7 +13337,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13338,10 +13352,10 @@
         <v>98</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>78</v>
@@ -13355,10 +13369,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13470,10 +13484,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13587,14 +13601,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13616,10 +13630,10 @@
         <v>131</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>156</v>
@@ -13674,7 +13688,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -13706,10 +13720,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13735,16 +13749,16 @@
         <v>174</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13793,7 +13807,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>86</v>
@@ -13808,16 +13822,16 @@
         <v>98</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>78</v>
@@ -13825,10 +13839,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13854,16 +13868,16 @@
         <v>376</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -13912,7 +13926,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -13927,16 +13941,16 @@
         <v>98</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>78</v>
@@ -13944,14 +13958,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13970,16 +13984,16 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14029,7 +14043,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -14044,7 +14058,7 @@
         <v>98</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>150</v>
@@ -14053,7 +14067,7 @@
         <v>78</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>78</v>
@@ -14061,10 +14075,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14090,16 +14104,16 @@
         <v>273</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -14148,7 +14162,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -14163,10 +14177,10 @@
         <v>98</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>78</v>
@@ -14180,10 +14194,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14206,19 +14220,19 @@
         <v>87</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
@@ -14267,7 +14281,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -14282,7 +14296,7 @@
         <v>98</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>150</v>
@@ -14299,10 +14313,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14414,10 +14428,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14531,14 +14545,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14560,10 +14574,10 @@
         <v>131</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>156</v>
@@ -14618,7 +14632,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -14650,10 +14664,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14676,16 +14690,16 @@
         <v>87</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14735,7 +14749,7 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>86</v>
@@ -14759,7 +14773,7 @@
         <v>78</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>78</v>
@@ -14767,10 +14781,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14796,10 +14810,10 @@
         <v>106</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14829,10 +14843,10 @@
         <v>227</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>78</v>
@@ -14850,7 +14864,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>86</v>
@@ -14865,7 +14879,7 @@
         <v>98</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>150</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Patient.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Patient.xlsx
@@ -359,7 +359,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -764,7 +764,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -864,7 +864,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1470,7 +1470,7 @@
     <t>The domestic partnership status of a person.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
+    <t>http://hl7.org/fhir/ValueSet/marital-status|4.0.1</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -1599,7 +1599,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>NK1-7, NK1-3</t>
@@ -1781,7 +1781,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1852,7 +1852,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2184,15 +2184,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.03125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.23828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.49609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2203,27 +2203,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.33203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Patient.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Patient.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Patient</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-Patient</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -1288,7 +1288,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://hl7.no/fhir/StructureDefinition/no-basis-HumanName}
+    <t xml:space="preserve">HumanName {http://hl7.no/fhir/ig/StructureDefinition/no-basis-HumanName}
 </t>
   </si>
   <si>
@@ -1430,7 +1430,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hl7.no/fhir/StructureDefinition/no-basis-Address}
+    <t xml:space="preserve">Address {http://hl7.no/fhir/ig/StructureDefinition/no-basis-Address}
 </t>
   </si>
   <si>
